--- a/Release/App/DemoScenario.xlsx
+++ b/Release/App/DemoScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svi-quannguyen\Documents\GIT\iTools\Release\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183B38EE-3078-4434-BE2B-140E5E4C3531}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC80B34-5A89-482C-9ACD-ADDC41633F9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" xr2:uid="{F4B8C959-D0EB-43F3-A068-DDCADCEE702D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Feature</t>
   </si>
@@ -185,6 +185,75 @@
 + Tool5: Tray7
 MAC2
 Tool3: Tray1, 4</t>
+  </si>
+  <si>
+    <t>Suggest new location for tool</t>
+  </si>
+  <si>
+    <t>TakeOver Tool</t>
+  </si>
+  <si>
+    <t>MAC1
+Tray1 - Tool1: 5
+Tray4 - Tool2: 2</t>
+  </si>
+  <si>
+    <t>View tray detail</t>
+  </si>
+  <si>
+    <t>View tray detail of MAC1, MAC2</t>
+  </si>
+  <si>
+    <t>Final demo web</t>
+  </si>
+  <si>
+    <t>Emp login</t>
+  </si>
+  <si>
+    <t>Com1User1  login</t>
+  </si>
+  <si>
+    <t>Emp get tool</t>
+  </si>
+  <si>
+    <t>- Get Tool1 n times
+- Get Tool3 --&gt; none --&gt; suggest MAC2</t>
+  </si>
+  <si>
+    <t>Emp Change pass</t>
+  </si>
+  <si>
+    <t>Emp Forgot Pass</t>
+  </si>
+  <si>
+    <t>- Com1User1 change pass</t>
+  </si>
+  <si>
+    <t>- Com1User1 forgot pass</t>
+  </si>
+  <si>
+    <t>Emp features</t>
+  </si>
+  <si>
+    <t>Company admin login</t>
+  </si>
+  <si>
+    <t>Company Admin reset password</t>
+  </si>
+  <si>
+    <t>Company Admin lock - unlock account</t>
+  </si>
+  <si>
+    <t>Company admin sync manually</t>
+  </si>
+  <si>
+    <t>Change pass/ Forgot pass</t>
+  </si>
+  <si>
+    <t>Company admin get tool</t>
+  </si>
+  <si>
+    <t>Company Admin features</t>
   </si>
   <si>
     <r>
@@ -198,7 +267,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -208,7 +277,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -221,7 +290,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -231,7 +300,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -242,31 +311,14 @@
     </r>
   </si>
   <si>
-    <t>Suggest new location for tool</t>
-  </si>
-  <si>
-    <t>TakeOver Tool</t>
-  </si>
-  <si>
-    <t>MAC1
-Tray1 - Tool1: 5
-Tray4 - Tool2: 2</t>
-  </si>
-  <si>
-    <t>View tray detail</t>
-  </si>
-  <si>
-    <t>View tray detail of MAC1, MAC2</t>
-  </si>
-  <si>
-    <t>Final demo web</t>
+    <t>Accounting features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,14 +327,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +375,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,67 +461,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,45 +869,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD16477-60EC-48BA-B1D5-EBC83F54F79B}">
   <dimension ref="E7:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="26" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="63.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="37.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="63.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="11" t="s">
+    <row r="7" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="5:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" ht="150" x14ac:dyDescent="0.3">
       <c r="E8" s="5">
         <v>1</v>
       </c>
@@ -810,16 +917,16 @@
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
       <c r="E9" s="5">
         <f>E8+1</f>
         <v>2</v>
@@ -830,16 +937,16 @@
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
       <c r="E10" s="5">
         <f t="shared" ref="E10:E47" si="0">E9+1</f>
         <v>3</v>
@@ -850,14 +957,14 @@
       <c r="G10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -871,614 +978,671 @@
       <c r="H11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="9">
+    <row r="12" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="7">
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="7">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="14"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E15" s="7">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E16" s="10">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="5:11" ht="75" x14ac:dyDescent="0.3">
+      <c r="E16" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E17" s="10">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="5:11" ht="75" x14ac:dyDescent="0.3">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="10">
+      <c r="I17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E18" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19" s="10">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="E19" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="5:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="E20" s="10">
+      <c r="I19" s="19"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="5:11" ht="150" x14ac:dyDescent="0.3">
+      <c r="E20" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E21" s="9">
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="E21" s="10">
         <f t="shared" ref="E21" si="1">E20+1</f>
         <v>14</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="6">
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="5:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="E23" s="6">
+      <c r="H22" s="12"/>
+      <c r="I22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="5:11" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="E24" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E25" s="21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E26" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="6">
+      <c r="H26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="E27" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="6">
+      <c r="F27" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E28" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="6">
+      <c r="F28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E29" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="6">
+      <c r="F29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E30" s="26">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="6">
+      <c r="F30" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="E31" s="26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="6">
+      <c r="F31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="E32" s="26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="6">
+      <c r="F32" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E33" s="26">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E34" s="6">
+      <c r="F33" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E34" s="26">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="6">
+      <c r="F34" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E35" s="26">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="6">
+      <c r="F35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E37" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="6">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E38" s="30">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="6">
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E39" s="30">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="6">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E40" s="30">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E41" s="6">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" s="30">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E42" s="6">
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E42" s="30">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E43" s="6">
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E43" s="30">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E44" s="6">
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E44" s="30">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="6">
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E45" s="30">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="6">
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E46" s="30">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="6">
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E47" s="30">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="19"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E49" s="19"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E50" s="19"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E51" s="19"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E52" s="19"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E53" s="19"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E54" s="19"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E55" s="19"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="I22:I24"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I26:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Release/App/DemoScenario.xlsx
+++ b/Release/App/DemoScenario.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svi-quannguyen\Documents\GIT\iTools\Release\App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC80B34-5A89-482C-9ACD-ADDC41633F9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13620" xr2:uid="{F4B8C959-D0EB-43F3-A068-DDCADCEE702D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Feature</t>
   </si>
@@ -313,11 +307,17 @@
   <si>
     <t>Accounting features</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,6 +481,51 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,27 +535,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,15 +544,6 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,21 +552,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -665,7 +665,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -859,18 +859,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD16477-60EC-48BA-B1D5-EBC83F54F79B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
       <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="5"/>
@@ -940,7 +940,7 @@
       <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
@@ -978,589 +978,609 @@
       <c r="H11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E12" s="10">
+    <row r="12" spans="5:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="5:11" ht="75" x14ac:dyDescent="0.3">
-      <c r="E16" s="16">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="5:11" ht="75" x14ac:dyDescent="0.3">
-      <c r="E17" s="16">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E18" s="16">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="E19" s="16">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="5:11" ht="150" x14ac:dyDescent="0.3">
-      <c r="E20" s="16">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <f t="shared" ref="E21" si="1">E20+1</f>
         <v>14</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10" t="s">
+      <c r="I21" s="8"/>
+      <c r="J21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="5:11" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E25" s="21">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E26" s="22">
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="5:11" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="E27" s="22">
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E28" s="22">
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E29" s="22">
+      <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E30" s="26">
+      <c r="E30" s="14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="E31" s="26">
+      <c r="E31" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="5:11" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="E32" s="26">
+      <c r="E32" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E33" s="26">
+      <c r="E33" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E34" s="26">
+      <c r="E34" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E35" s="26">
+      <c r="E35" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E36" s="30">
+      <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E37" s="30">
+      <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E38" s="30">
+      <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E39" s="30">
+      <c r="E39" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E40" s="30">
+      <c r="E40" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E41" s="30">
+      <c r="E41" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E42" s="30">
+      <c r="E42" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
     </row>
     <row r="43" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E43" s="30">
+      <c r="E43" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
     </row>
     <row r="44" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E44" s="30">
+      <c r="E44" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
     </row>
     <row r="45" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E45" s="30">
+      <c r="E45" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
     </row>
     <row r="46" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E46" s="30">
+      <c r="E46" s="15">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
     </row>
     <row r="47" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E47" s="30">
+      <c r="E47" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" s="3"/>
